--- a/August'21/31.08.2021/Daily Sales Info August-2021.xlsx
+++ b/August'21/31.08.2021/Daily Sales Info August-2021.xlsx
@@ -1263,7 +1263,137 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1410">
+  <dxfs count="1394">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1278,6 +1408,112 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF006100"/>
@@ -1292,11 +1528,102 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1314,23 +1641,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF006100"/>
@@ -1343,23 +1653,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF006100"/>
@@ -1372,23 +1665,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF006100"/>
@@ -1396,398 +1672,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -15243,188 +15127,188 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E28:K29 E4:H4 E6:H6">
-    <cfRule type="cellIs" dxfId="1409" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1393" priority="44" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E28:K29 E4 E6">
-    <cfRule type="cellIs" dxfId="1408" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1392" priority="42" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1407" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1391" priority="43" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F28:F29 F4 F6">
-    <cfRule type="cellIs" dxfId="1406" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1390" priority="40" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1405" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1389" priority="41" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G29 G4 G6">
-    <cfRule type="cellIs" dxfId="1404" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1388" priority="38" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1403" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1387" priority="39" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29 H4 H6">
-    <cfRule type="cellIs" dxfId="1402" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1386" priority="36" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1401" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1385" priority="37" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1400" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1384" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1399" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1398" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1397" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1383" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1382" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1381" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:K28 E4 E6">
-    <cfRule type="cellIs" dxfId="1396" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="1380" priority="31" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D4:K4 M4 D6">
-    <cfRule type="cellIs" dxfId="1395" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1379" priority="30" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I29 I4 I6">
-    <cfRule type="cellIs" dxfId="1394" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1378" priority="29" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J29 J4 J6">
-    <cfRule type="cellIs" dxfId="1393" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1377" priority="28" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K29 K4 K6">
-    <cfRule type="cellIs" dxfId="1392" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1376" priority="27" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1391" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1375" priority="26" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1390" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1389" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1388" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1374" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1373" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1372" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1387" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1371" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1386" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1385" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1384" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1370" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1369" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1368" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1383" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1382" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1381" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1367" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1366" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1365" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1380" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1364" priority="13" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1379" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1363" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1378" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1362" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1377" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1361" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1376" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1360" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1375" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1359" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1374" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1358" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1373" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1357" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1372" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1356" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1371" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1355" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1370" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1354" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1369" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1353" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:L5">
-    <cfRule type="cellIs" dxfId="1368" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1352" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17088,213 +16972,213 @@
     <mergeCell ref="M29:V29"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1023" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="1007" priority="63" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1022" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="1006" priority="61" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1021" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="1005" priority="62" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1020" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="1004" priority="59" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1019" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="1003" priority="60" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1018" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="1002" priority="57" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1017" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="1001" priority="58" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1016" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="1000" priority="55" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1015" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="999" priority="56" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="1014" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="998" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1013" priority="51" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1012" priority="52" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1011" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="997" priority="51" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="996" priority="52" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="995" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1010" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="994" priority="50" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1009" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="993" priority="49" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1008" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="992" priority="48" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1007" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="991" priority="47" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1006" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="990" priority="46" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1005" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="989" priority="45" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="1004" priority="42" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1003" priority="43" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1002" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="988" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="987" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="986" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1001" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="985" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="1000" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="984" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="999" priority="37" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="998" priority="38" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="997" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="983" priority="37" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="982" priority="38" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="981" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="996" priority="34" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="995" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="994" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="980" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="979" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="978" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="993" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="977" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="992" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="976" priority="32" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="991" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="975" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="990" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="974" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="989" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="973" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="988" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="972" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="987" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="971" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="986" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="970" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="985" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="969" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="984" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="968" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="983" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="967" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="982" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="966" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="981" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="965" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="980" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="964" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="979" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="963" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="978" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="962" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="977" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="961" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18825,193 +18709,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="976" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="960" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="975" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="959" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="974" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="958" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="973" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="957" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="972" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="956" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="971" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="955" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="970" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="954" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="969" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="953" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="968" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="952" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="967" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="951" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="966" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="965" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="964" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="950" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="949" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="948" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="963" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="947" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="962" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="946" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="961" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="945" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="960" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="944" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="959" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="943" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="958" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="942" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="957" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="956" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="955" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="941" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="940" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="939" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="954" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="938" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="953" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="937" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="952" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="951" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="950" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="936" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="935" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="934" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="949" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="948" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="947" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="933" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="932" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="931" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="946" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="930" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="945" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="929" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="944" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="928" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="943" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="927" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="942" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="926" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="941" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="925" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="940" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="924" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="939" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="923" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="938" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="922" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="937" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="921" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="936" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="920" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="935" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="919" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="934" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="918" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20543,193 +20427,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="933" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="917" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="932" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="916" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="931" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="915" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="930" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="914" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="929" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="913" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="928" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="912" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="927" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="911" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="926" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="910" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="925" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="909" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="924" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="908" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="923" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="922" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="921" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="907" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="906" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="905" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="920" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="904" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="919" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="903" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="918" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="902" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="917" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="901" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="916" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="900" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="915" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="899" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="914" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="913" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="912" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="898" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="897" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="896" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="911" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="895" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="910" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="894" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="909" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="908" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="907" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="893" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="892" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="891" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="906" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="905" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="904" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="890" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="889" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="888" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="903" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="887" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="902" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="886" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="901" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="885" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="900" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="884" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="899" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="883" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="898" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="882" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="897" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="881" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="896" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="880" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="895" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="879" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="894" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="878" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="893" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="877" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="892" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="876" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="891" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="875" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22097,193 +21981,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="890" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="889" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="873" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="888" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="872" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="887" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="871" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="886" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="870" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="885" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="869" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="884" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="868" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="883" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="867" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="882" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="866" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="881" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="865" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="880" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="879" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="878" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="864" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="863" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="862" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="877" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="861" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="876" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="875" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="859" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="874" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="858" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="873" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="857" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="872" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="871" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="870" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="869" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="855" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="854" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="853" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="868" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="852" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="867" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="851" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="866" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="865" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="864" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="850" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="849" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="848" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="863" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="862" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="861" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="847" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="846" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="845" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="860" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="844" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="859" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="858" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="842" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="857" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="841" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="856" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="840" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="855" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="839" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="854" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="838" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="853" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="837" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="852" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="836" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="851" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="835" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="850" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="834" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="849" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="833" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="848" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="832" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23796,193 +23680,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="847" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="846" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="845" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="829" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="844" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="843" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="842" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="841" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="825" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="840" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="839" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="823" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="838" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="822" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="837" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="836" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="835" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="821" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="820" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="819" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="834" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="833" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="817" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="832" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="831" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="830" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="829" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="828" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="827" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="826" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="812" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="811" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="810" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="825" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="809" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="824" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="808" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="823" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="821" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="807" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="806" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="805" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="820" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="819" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="818" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="804" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="803" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="802" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="817" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="801" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="816" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="815" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="799" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="814" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="798" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="813" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="797" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="812" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="796" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="811" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="795" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="810" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="794" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="809" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="793" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="808" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="792" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="807" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="791" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="806" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="790" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="805" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="789" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25479,193 +25363,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="804" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="803" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="801" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="800" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="799" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="798" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="797" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="781" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="795" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="779" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="794" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="792" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="778" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="777" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="776" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="791" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="790" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="789" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="788" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="787" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="786" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="785" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="783" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="769" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="768" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="767" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="782" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="766" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="781" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="765" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="780" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="779" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="764" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="763" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="762" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="777" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="761" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="760" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="759" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="774" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="758" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="773" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="772" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="756" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="771" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="755" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="770" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="754" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="769" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="753" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="768" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="752" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="767" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="751" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="766" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="750" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="765" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="749" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="764" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="748" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="763" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="747" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="762" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="746" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27174,193 +27058,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="761" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="760" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="759" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="758" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="756" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="755" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="754" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="753" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="752" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="736" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="751" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="750" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="749" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="735" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="734" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="733" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="748" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="747" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="746" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="745" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="744" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="743" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="742" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="741" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="740" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="726" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="725" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="724" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="739" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="723" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="738" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="722" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="737" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="736" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="735" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="721" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="720" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="719" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="734" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="718" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="717" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="716" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="731" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="715" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="730" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="729" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="713" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="728" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="712" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="727" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="711" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="726" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="710" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="725" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="709" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="724" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="708" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="723" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="707" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="722" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="706" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="721" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="705" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="720" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="704" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="719" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="703" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28867,193 +28751,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="718" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="717" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="716" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="715" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="714" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="713" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="711" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="709" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="693" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="708" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="692" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="691" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="690" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="705" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="704" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="703" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="702" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="701" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="685" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="700" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="699" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="683" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="682" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="681" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="696" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="680" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="695" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="679" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="694" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="678" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="677" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="676" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="691" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="689" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="675" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="674" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="673" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="688" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="672" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="687" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="686" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="670" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="685" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="669" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="684" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="668" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="683" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="667" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="682" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="666" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="681" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="665" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="680" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="664" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="679" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="663" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="678" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="662" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="677" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="661" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="676" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="660" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30734,213 +30618,213 @@
     <mergeCell ref="M29:V29"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="675" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="63" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="674" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="61" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="62" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="672" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="59" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="60" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="670" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="57" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="58" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="668" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="55" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="56" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="666" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="650" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="665" priority="51" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="52" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="649" priority="51" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="648" priority="52" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="647" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="662" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="50" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="661" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="49" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="660" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="48" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="659" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="47" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="658" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="46" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="657" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="45" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="656" priority="42" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="43" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="640" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="639" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="638" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="653" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="637" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="652" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="636" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="651" priority="37" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="38" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="649" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="635" priority="37" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="634" priority="38" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="633" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="648" priority="34" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="632" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="631" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="630" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="645" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="629" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="644" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="32" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="643" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="627" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="642" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="626" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="641" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="625" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="640" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="624" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="639" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="623" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="638" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="622" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="637" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="621" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="636" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="620" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="635" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="619" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="634" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="618" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="633" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="617" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="632" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="616" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="631" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="615" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="630" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="614" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="629" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="613" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32657,213 +32541,213 @@
     <mergeCell ref="M29:V29"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="628" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="63" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="627" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="61" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="62" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="625" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="59" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="60" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="623" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="57" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="58" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="621" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="55" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="56" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="619" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="603" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="618" priority="51" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="52" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="602" priority="51" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="601" priority="52" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="600" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="615" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="50" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="614" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="49" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="613" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="48" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="612" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="47" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="611" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="46" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="610" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="45" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="609" priority="42" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="608" priority="43" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="593" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="592" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="591" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="606" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="590" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="605" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="589" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="604" priority="37" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="38" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="588" priority="37" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="587" priority="38" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="586" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="601" priority="34" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="585" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="584" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="583" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="598" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="582" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="597" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="32" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="596" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="580" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="595" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="579" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="594" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="578" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="593" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="577" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="592" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="576" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="591" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="575" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="590" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="574" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="589" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="573" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="588" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="572" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="587" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="571" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="586" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="570" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="585" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="569" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="584" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="568" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="583" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="567" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="582" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="566" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34311,193 +34195,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1367" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1351" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1366" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1350" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1365" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1349" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1364" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1348" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1363" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1347" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1362" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1346" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1361" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1345" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1360" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1344" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1359" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1343" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1358" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1342" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1357" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1356" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1355" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1341" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1340" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1339" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1354" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1338" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1353" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1337" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1352" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1336" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1351" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1335" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1350" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1334" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1349" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1333" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1348" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1347" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1346" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1332" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1331" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1330" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1345" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1329" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1344" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1328" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1343" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1342" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1341" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1327" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1326" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1325" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1340" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1339" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1338" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1324" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1323" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1322" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1337" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1321" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1336" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1320" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1335" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1319" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1334" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1318" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1333" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1317" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1332" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1316" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1331" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1315" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1330" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1314" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1329" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1313" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1328" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1312" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1327" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1311" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1326" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1310" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1325" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1309" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36070,213 +35954,213 @@
     <mergeCell ref="M29:V29"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="581" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="63" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="580" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="61" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="62" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="578" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="59" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="60" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="576" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="57" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="58" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="574" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="55" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="56" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="572" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="556" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="571" priority="51" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="52" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="555" priority="51" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="554" priority="52" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="553" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="568" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="50" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="567" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="49" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="566" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="48" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="565" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="47" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="564" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="46" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="563" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="45" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="562" priority="42" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="43" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="546" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="545" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="544" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="559" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="543" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="558" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="542" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="557" priority="37" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="38" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="541" priority="37" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="540" priority="38" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="539" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="554" priority="34" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="538" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="537" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="536" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="551" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="535" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="550" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="32" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="549" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="533" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="548" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="532" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="547" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="531" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="546" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="530" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="545" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="529" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="544" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="528" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="543" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="527" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="542" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="526" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="541" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="525" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="540" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="524" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="539" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="523" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="538" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="522" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="537" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="521" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="536" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="520" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="535" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="519" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37795,193 +37679,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="534" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="533" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="531" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="529" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="527" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="525" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="509" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="524" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="508" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="507" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="506" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="521" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="520" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="519" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="518" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="517" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="516" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="515" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="499" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="498" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="497" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="512" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="496" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="511" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="495" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="510" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="494" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="493" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="492" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="507" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="491" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="490" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="489" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="504" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="488" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="503" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="502" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="486" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="501" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="485" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="500" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="484" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="499" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="483" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="498" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="482" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="497" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="481" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="496" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="480" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="495" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="479" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="494" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="478" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="493" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="477" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="492" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="476" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39514,193 +39398,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="491" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="490" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="488" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="486" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="484" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="482" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="466" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="481" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="465" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="464" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="463" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="478" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="477" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="476" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="475" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="474" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="473" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="472" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="456" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="455" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="454" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="469" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="453" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="468" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="452" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="467" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="451" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="450" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="449" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="464" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="448" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="447" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="446" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="461" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="445" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="460" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="459" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="443" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="458" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="442" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="457" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="441" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="456" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="440" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="455" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="439" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="454" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="438" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="453" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="437" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="452" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="436" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="451" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="435" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="450" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="434" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="449" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="433" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41270,193 +41154,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="448" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="447" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="445" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="443" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="441" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="439" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="423" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="438" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="422" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="420" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="435" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="434" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="433" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="432" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="431" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="430" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="429" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="413" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="411" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="426" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="410" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="425" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="409" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="424" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="408" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="407" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="421" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="405" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="404" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="418" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="402" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="417" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="416" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="400" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="415" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="399" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="414" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="398" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="413" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="397" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="412" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="396" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="411" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="395" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="410" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="394" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="409" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="393" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="408" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="392" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="407" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="391" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="406" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="390" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42973,193 +42857,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="405" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="404" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="402" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="400" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="398" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="396" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="380" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="395" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="379" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="378" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="377" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="392" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="391" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="390" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="389" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="388" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="387" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="386" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="370" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="369" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="368" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="383" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="367" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="382" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="366" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="381" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="365" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="363" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="378" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="362" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="375" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="359" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="374" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="373" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="357" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="372" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="356" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="371" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="355" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="370" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="354" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="369" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="353" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="368" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="352" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="367" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="351" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="366" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="350" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="365" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="349" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="364" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="348" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="363" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="347" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44666,193 +44550,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="362" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="361" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="359" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="357" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="355" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="353" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="352" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="335" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="349" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="348" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="347" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="346" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="345" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="344" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="343" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="340" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="339" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="338" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="335" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="332" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="316" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="331" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="330" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="314" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="329" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="313" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="328" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="312" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="327" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="311" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="326" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="310" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="325" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="309" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="324" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="308" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="323" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="307" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="322" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="306" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="321" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="305" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="320" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="304" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46376,193 +46260,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="319" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="318" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="316" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="314" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="312" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="310" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="309" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="306" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="305" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="304" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="303" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="302" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="301" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="300" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="297" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="296" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="295" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="292" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="289" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="273" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="288" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="287" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="271" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="286" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="270" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="285" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="269" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="284" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="268" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="283" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="267" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="282" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="266" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="281" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="265" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="280" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="264" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="279" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="263" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="278" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="262" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="277" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47968,193 +47852,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="276" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="275" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="273" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="271" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="269" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="267" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="266" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="263" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="262" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="261" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="260" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="259" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="258" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="257" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="254" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="238" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="253" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="252" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="249" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="246" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="230" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="245" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="244" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="243" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="227" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="242" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="226" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="241" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="225" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="240" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="224" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="239" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="223" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="238" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="237" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="221" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="236" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="220" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="235" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="219" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="234" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="218" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49660,193 +49544,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="233" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="232" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="230" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="228" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="226" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="224" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="223" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="220" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="219" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="218" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="217" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="216" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="215" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="214" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="211" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="210" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="209" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="206" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="203" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="202" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="201" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="200" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="199" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="198" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="197" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="181" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="196" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="195" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="194" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="193" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="192" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="191" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51372,193 +51256,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="190" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="189" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="187" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="185" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="183" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="181" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="180" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="177" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="176" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="175" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="174" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="173" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="172" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="171" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="168" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="167" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="166" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="163" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="160" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="159" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="158" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="157" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="156" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="155" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="154" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="153" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="152" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="151" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="150" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="149" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="148" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53095,193 +52979,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1324" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1308" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1323" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1307" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1322" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1306" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1321" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1305" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1320" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1304" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1319" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1303" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1318" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1302" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1317" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1301" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1316" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1300" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1315" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1299" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1314" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1313" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1312" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1298" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1297" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1296" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1311" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1295" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1310" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1294" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1309" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1293" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1308" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1292" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1307" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1291" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1306" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1290" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1305" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1304" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1303" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1289" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1288" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1287" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1302" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1286" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1301" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1285" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1300" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1299" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1298" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1284" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1283" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1282" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1297" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1296" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1295" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1281" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1280" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1279" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1294" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1278" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1293" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1277" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1292" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1276" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1291" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1275" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1290" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1274" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1289" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1273" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1288" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1272" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1287" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1271" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1286" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1270" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1285" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1269" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1284" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1268" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1283" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1267" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1282" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1266" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54956,193 +54840,193 @@
     <mergeCell ref="M29:V29"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="147" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="59" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="146" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="57" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="58" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="144" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="55" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="56" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="142" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="53" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="54" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="140" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="51" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="52" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="138" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="137" priority="47" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="48" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="47" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="48" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="134" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="46" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="133" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="45" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="132" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="44" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="43" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="130" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="42" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="129" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="41" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="128" priority="38" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="39" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="38" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="39" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="125" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="124" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="123" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="34" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="120" priority="30" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="30" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="117" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="116" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="28" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="115" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="114" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="113" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="112" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="111" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="110" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="109" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="108" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="107" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="106" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="105" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55155,8 +55039,8 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56810,213 +56694,213 @@
     <mergeCell ref="M29:V29"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="104" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="63" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="103" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="61" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="62" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="101" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="59" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="60" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="99" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="57" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="58" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="97" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="55" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="56" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="95" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="94" priority="51" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="52" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="51" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="52" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="91" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="50" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="90" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="49" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="89" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="48" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="88" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="47" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="87" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="46" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="86" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="45" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="85" priority="42" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="43" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="82" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="81" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="80" priority="37" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="38" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="37" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="38" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="77" priority="34" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="74" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="73" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="32" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="72" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="71" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="70" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="69" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="68" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="67" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="66" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="65" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="64" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="63" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="62" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59039,188 +58923,188 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E28:K29 E4:H4 E6:H6">
-    <cfRule type="cellIs" dxfId="61" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E28:K29 E4 E6">
-    <cfRule type="cellIs" dxfId="60" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F28:F29 F4 F6">
-    <cfRule type="cellIs" dxfId="58" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G29 G4 G6">
-    <cfRule type="cellIs" dxfId="56" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29 H4 H6">
-    <cfRule type="cellIs" dxfId="54" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="52" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="51" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:K28 E4 E6">
-    <cfRule type="cellIs" dxfId="48" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I29 I4 I6">
-    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J29 J4 J6">
-    <cfRule type="cellIs" dxfId="45" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K29 K4 K6">
-    <cfRule type="cellIs" dxfId="44" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="43" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="42" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="38" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7 D8:L27 Q8:Q27">
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:L5">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61177,193 +61061,193 @@
     <mergeCell ref="C4:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1281" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1265" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1280" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1264" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1279" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1263" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1278" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1262" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1277" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1261" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1276" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1260" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1275" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1259" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1274" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1258" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1273" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1257" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1272" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1256" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1271" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1270" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1269" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1255" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1254" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1253" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1268" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1252" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1267" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1251" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1266" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1250" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1265" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1249" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1264" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1248" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1263" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1247" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1262" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1261" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1260" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1246" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1245" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1244" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1259" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1243" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1258" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1242" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1257" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1256" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1255" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1241" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1240" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1239" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1254" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1253" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1252" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1238" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1237" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1236" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1251" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1235" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1250" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1234" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1249" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1233" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1248" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1232" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1247" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1231" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1246" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1230" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1245" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1229" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1244" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1228" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1243" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1227" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1242" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1226" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1241" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1225" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1240" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1224" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1239" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1223" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62914,193 +62798,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1238" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1222" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1237" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1221" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1236" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1220" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1235" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1219" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1234" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1218" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1233" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1217" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1232" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1216" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1231" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1215" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1230" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1214" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1229" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1213" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1228" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1227" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1226" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1212" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1211" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1210" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1225" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1209" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1224" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1208" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1223" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1207" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1222" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1206" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1221" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1205" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1220" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1204" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1219" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1218" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1217" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1203" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1202" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1201" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1216" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1200" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1215" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1199" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1214" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1213" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1212" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1198" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1197" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1196" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1211" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1210" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1209" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1195" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1194" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1193" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1208" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1192" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1207" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1191" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1206" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1190" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1205" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1189" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1204" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1188" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1203" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1187" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1202" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1186" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1201" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1185" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1200" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1184" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1199" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1183" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1198" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1182" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1197" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1181" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1196" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1180" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64472,193 +64356,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1195" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1179" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1194" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1178" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1193" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1177" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1192" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1176" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1191" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1175" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1190" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1174" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1189" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1173" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1188" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1172" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1187" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1171" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1186" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1170" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1185" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1184" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1183" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1169" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1168" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1167" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1182" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1166" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1181" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1165" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1180" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1164" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1179" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1163" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1178" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1162" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1177" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1161" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1176" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1175" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1174" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1160" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1159" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1158" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1173" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1157" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1172" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1156" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1171" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1170" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1169" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1155" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1154" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1153" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1168" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1167" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1166" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1152" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1151" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1150" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1165" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1149" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1164" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1148" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1163" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1147" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1162" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1146" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1161" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1145" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1160" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1144" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1159" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1143" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1158" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1142" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1157" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1141" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1156" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1140" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1155" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1139" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1154" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1138" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1153" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1137" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -66174,193 +66058,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1152" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1136" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1151" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1135" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1150" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1134" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1149" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1133" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1148" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1132" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1147" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1131" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1146" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1130" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1145" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1129" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1144" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1128" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1143" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1127" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1142" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1141" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1140" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1126" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1125" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1124" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1139" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1123" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1138" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1122" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1137" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1121" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1136" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1120" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1135" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1119" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1134" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1118" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1133" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1132" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1131" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1117" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1116" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1115" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1130" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1114" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1129" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1113" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1128" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1127" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1126" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1112" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1111" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1110" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1125" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1124" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1123" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1109" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1108" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1107" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1122" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1106" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1121" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1105" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1120" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1104" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1119" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1103" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1118" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1102" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1117" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1101" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1116" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1100" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1115" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1099" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1114" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1098" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1113" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1097" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1112" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1096" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1111" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1095" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1110" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1094" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67898,193 +67782,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1109" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1093" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1108" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1092" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1107" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1091" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1106" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1090" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1105" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1089" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1104" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1088" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1103" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1087" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1102" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1086" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1101" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1085" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1100" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1084" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1099" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1098" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1097" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1083" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1082" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1081" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1096" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1080" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1095" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1079" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1094" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1078" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1093" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1077" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1092" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1076" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1091" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1075" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1090" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1089" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1088" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1074" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1073" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1072" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1087" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1071" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1086" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1070" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1085" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1084" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1083" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1069" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1068" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1067" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1082" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1081" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1080" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1066" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1065" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1064" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1079" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1063" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1078" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1062" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1077" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1061" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1076" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1060" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1075" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1059" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1074" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1058" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1073" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1057" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1072" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1056" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1071" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1055" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1070" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1054" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1069" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1053" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1068" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1052" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1067" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1051" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -69615,193 +69499,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1066" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1050" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1065" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1049" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1064" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1048" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1063" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1047" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1062" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1046" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1061" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1045" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1060" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1044" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1059" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1043" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1058" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1042" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1057" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1041" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1056" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1055" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1054" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1040" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1039" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1038" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1053" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1037" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1052" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1036" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1051" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1035" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1050" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1034" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1049" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1033" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1048" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1032" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1047" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1046" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1045" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1031" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1030" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1029" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1044" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1028" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1043" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1027" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1042" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1041" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1040" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1026" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1025" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1024" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1039" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1038" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1037" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1023" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1022" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1021" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1036" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1020" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1035" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1019" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1034" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1018" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1033" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1017" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1032" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1016" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1031" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1015" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1030" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1014" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1029" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1013" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1028" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1012" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1027" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1011" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1026" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1010" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1025" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1009" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1024" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1008" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/August'21/31.08.2021/Daily Sales Info August-2021.xlsx
+++ b/August'21/31.08.2021/Daily Sales Info August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="828" activeTab="30"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="828" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -53177,9 +53177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55038,9 +55038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/August'21/31.08.2021/Daily Sales Info August-2021.xlsx
+++ b/August'21/31.08.2021/Daily Sales Info August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="828" activeTab="29"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="831" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -13629,10 +13629,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5:T5"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32761,7 +32761,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37877,9 +37877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39597,8 +39597,8 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41354,7 +41354,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51455,8 +51455,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53177,9 +53177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/August'21/31.08.2021/Daily Sales Info August-2021.xlsx
+++ b/August'21/31.08.2021/Daily Sales Info August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="831" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="831" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -13630,9 +13630,9 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15321,7 +15321,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -17191,7 +17191,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -18908,7 +18908,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -22180,7 +22180,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7:C27"/>
     </sheetView>
   </sheetViews>
@@ -23878,9 +23878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32761,7 +32761,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37877,7 +37877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
@@ -66257,7 +66257,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
